--- a/study_job/기업 조사.xlsx
+++ b/study_job/기업 조사.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na0i\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na0i\TIL\study_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA816EC-4D35-4700-9D08-05EBE6121473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24EDF2-789C-40E1-A534-67493D47B05B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1840" windowWidth="17280" windowHeight="8960" activeTab="2" xr2:uid="{FCDEED95-45D3-4A47-9838-707BE30270B9}"/>
+    <workbookView xWindow="560" yWindow="1840" windowWidth="17280" windowHeight="8960" activeTab="3" xr2:uid="{FCDEED95-45D3-4A47-9838-707BE30270B9}"/>
   </bookViews>
   <sheets>
     <sheet name="대기업" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
   <si>
     <t>기업명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,12 +581,634 @@
 스타트업 근무 경험이 있으신분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TDK한국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영지원부 정보시스템과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개이상 구사 가능한 지원자
+- Visual Stdio
+- Power Billder, Delphi
+- ASP, PHP
+- Java JSP 서버 JavaScript 클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)SAP 운용관련 교육이수자
+2)ERP 운용관련 교육이수자
+3)전산관련 교육 이수자(정부교육)
+4)일본어 또는 영어 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠포스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 마케팅 기획자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)Google analytics 외 구글 마케팅 플랫폼 활용 경험 있으신 분
+2)MySQL, python 등 데이터 분석 툴 활용 가능하신 분
+3)MS Office 프로그램의 활용 뛰어나신 분
+4)마케팅 관련 배경지식 보유하신 분(관련 전공자 우대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소니인터랙티브엔터테인먼트코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS 본부 인턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC Trouble Shooting
+MS Office 능숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산관련 학과
+정보통신 자격증 소지자 우대
+영어 또는 일본어 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닐슨컴퍼니코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계/경제/산업공학/공학계열 전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 커뮤니케이션 가능자
+R/Python 사용 경험자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 SGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동화 프로그램 및
+RPA 프로그램 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#/RPA/JAVA/Xcode/Python/Android SDK 중 한가지 이상을 사용한 프로그램 개발 경험자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXA손해보험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A&amp;H 개발팀
+JAVA App 개발담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS(Window, Linux, Unix)
+DB(Oracle, MS-SQL)
+Programming 언어 기본적인 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적 영어 커뮤니케이션 가능자 우대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알라딘글로벌알앤디센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리셔&amp;웹프론트엔드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리셔 or 웹프론트앤드 2~6년차 또는 그에 준하는 역량 보유자
+HTML5, CSS, Jquery 필수
+UI 오픈소스 라이브러리 사용가능 하신 분
+애자일 방식의 개발에 부담이 없으신 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록체인 관련 업무 경험 있으신 분
+React, VueJs 사용가능하신 분
+디자인 경험 있으신 분(포토샵, 일러스트)
+웹/모바일 동적 레이아웃 설계 가능하신 분
+퍼블리셔/프론트앤드 크로스오버 개발에 관심 있으신 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융관련 업무 경력자
+일본어 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용프로그래머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아네스트코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript 개발 경험
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Git / Github </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">활용 경험
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> npm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 활용한 개발 경험
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">음악과 아티스트에 대한 관심이 많은 분
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Frontend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자로 지속적으로 성장하고자 하는 분</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Vue.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SPA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Electron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TypeScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="KoPub돋움체 Light"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend(junior)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림어스컴퍼니(뮤직플랫폼FLO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆍECMA6, Jquery, ReactJS 활용 가능자
+ㆍJava, Python 경험/활용 가능자
+ㆍRDB, Linux 기본 지식 소유자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆍWeb Service 개발 경험자
+ㆍDocker 개발 유경험자
+ㆍ컴퓨터 공학 및 전산 전공 우대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸디소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 소프트웨어 개발 및 공급업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +1230,40 @@
       <name val="KoPub돋움체 Light"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="KoPub돋움체 Light"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="KoPub돋움체 Light"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -632,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +1309,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +2066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="78" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="65" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1589,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552F6B94-4550-457B-8BB9-E20B0273C2B3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1628,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="104" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="91" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1657,43 +2322,181 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48DD239-F59A-41F3-883C-08440051BA2A}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="7"/>
+    <col min="5" max="5" width="24.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="65" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="52" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="39" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="39" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/study_job/기업 조사.xlsx
+++ b/study_job/기업 조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na0i\TIL\study_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24EDF2-789C-40E1-A534-67493D47B05B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C6B33-C331-4269-946F-E7E760BCF140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1840" windowWidth="17280" windowHeight="8960" activeTab="3" xr2:uid="{FCDEED95-45D3-4A47-9838-707BE30270B9}"/>
+    <workbookView xWindow="560" yWindow="1840" windowWidth="17280" windowHeight="8960" activeTab="2" xr2:uid="{FCDEED95-45D3-4A47-9838-707BE30270B9}"/>
   </bookViews>
   <sheets>
     <sheet name="대기업" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="217">
   <si>
     <t>기업명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1203,12 +1203,292 @@
     <t>응용 소프트웨어 개발 및 공급업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>코리아센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱드림팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탬프팡 주문 배달 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆍDjango 사용 경험자
+ㆍ다양한 프로그래밍 언어 사용 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 사용 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 소프트웨어 개발 및 공급업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆍ컴퓨터/전산/보안/정보/산업공학 등
+   IT유관 전공
+ㆍ서버/모바일/웹/API 서비스 개발 경험자
+ㆍUNIX, Linux OS 경험자
+ㆍSQL 경험자
+ㆍMQ 및 데이터파이프라인 경험자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 서비스 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업정보 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C, Java 또는 Python언어 개발 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석 역량 보유(데이터 분류 경험, R, SAS, Python 등 다뤄본 경험)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆍ상경계열/통계/수학/산업공학/금융공학/
+   컴퓨터공학 전공자
+ㆍ석사학위보유자
+ㆍ리스크 관리, 솔루션 개발 업무 경험자
+ㆍ빅데이터 기반 모델링 경험 보유자
+ㆍ머신러닝, 딥러닝 등 인공지능(AI) 관련
+   지식 경험 보유자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 및 온라인정보 제공업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICE평가정보㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python 또는 node.js 가능자
+backend 구현 가능자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine learning분야에 경험이나 관심이 있는 사람
+AD Tech 개발경험
+cloud 기반 개발 경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMP개발자
+(데이터 관리 플랫폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/ML 프로젝트 개발 경험                                                                                                                                                                                                                                                                AI/ML 파이프라인 개발 경험                                                                                                                                                                                                                                                    대용량 기계학습 경험                                                                                                                                                                                                                            Golang 프로젝트 개발 경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 개발 능력 (python,nodejs,golang..)                                                                                                                                                                                                                                                                AI/ML 파이프라인 이해 (AWS,Azure,GCP)                                                                                                                                                                                                        cloud 개발 환경 이해 (AWS,Azure,GCP)                                                                                                                                                                                                              머신러닝, 딥러닝 개발 과정 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스팅 및 관련 서비스업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wavve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅데이터 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Python, Scala 중 1개 이상 가능
+Linux, RDBMS 사용 경험
+오픈소스 사용한 프로젝트 개발 경험
+Spark, Hadoop, Hive 등을 사용한 대용량 데이터 처리에 관심이 많은 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드 서비스(AWS,Azure,CGP)를 이용한 프로젝트 개발경험
+Apache Spark 기반 데이터 처리 개발 경험
+Apache Kafka 기반 데이터 스트림 개발 경험
+사용자 분석 경험(cohort 분석/RFM 분석/LTV 예측 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화, 비디오물 및 방송프로그램 배급업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비바리퍼블리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React, Vue, Angular 등 SPA 프레임워크 사용에 능숙하신 분을 찾습니다.
+HTML, CSS, JavaScript에 대한 이해가 깊은 분을 찾습니다.
+UI/UX에 대해 높은 가치를 두고 있는 분을 찾습니다.
+Git 등의 분산 버전 관리 시스템 이용에 능숙한 분을 찾습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeScript, Flow를 이용한 JavaScript 정적 타입 분석 경험이 있는 분
+서버 사이드 렌더링(SSR) 및 모바일 앱 내 웹앱 개발 경험이 있는 분
+반응형 디자인, 웹 접근성, 웹 표준을 고려한 UI 개발 경험이 있는 분
+테스트 및 배포 자동화 경험이 있는 분
+Webpack 등 모듈 번들러를 능숙하게 사용하시는 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React, Vue, Angular 등 SPA 프레임워크 사용에 능숙하신 분
+HTML, CSS, JavaScript에 대한 이해가 깊은 분
+UI/UX에 대해 높은 가치를 두고 있는 분
+Git 등의 분산 버전 관리 시스템 이용에 능숙한 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일, APP, 금융플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeScript, Flow를 이용한 JavaScript 정적 타입 분석 경험이 있는 분이면 좋습니다.
+기존 소스 코드를 새로운 코드 베이스로 점진적으로 이관한 경험이 있는 분이면 좋습니다.
+서버 사이드 렌더링(SSR) 개발 경험이 있는 분이면 좋습니다.
+Node.js, Python, PHP와 같은 다양한 언어 및 프레임워크 경험이 있는 분이면 좋습니다.
+반응형 디자인, 웹 접근성, 웹 표준을 고려한 UI 개발 경험이 있는 분이면 좋습니다.
+테스트 및 배포 자동화 경험이 있는 분이면 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend Developer (Homepage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 관련 경험이 있는 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React, Vue, Angular 등 SPA 프레임워크 사용에 능숙하시면 좋습니다.
+HTML, CSS, JavaScript에 대한 이해가 깊으시면 좋습니다.
+사람이 직접 처리해야 하는 일을 자동화한 경험이 있으면 좋습니다.
+REST API로 여러 서비스를 연동해본 경험이 있으면 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework 기반의 풀스택 웹 서비스 개발 경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 기반의 웹 어플리케이션 개발 경험이 있으면 좋습니다.
+관계형 데이터베이스의 쿼리나 인덱스를 최적화해 본 경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스증권 - Full Stack Developer (Internal Product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스뱅크 - Full Stack Developer (Internal Product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Spring Framework 기본 지식
+HTML/Javascript/jQuery/CSS 기본지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 유경험자
+모바일 Native(Android or iOS) 기본 지식 보유자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보시스템사업부 - 대내외 Framework 개발 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액체연료 및 관련제품 도매업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML, CSS, Javascript (ES2015 이상) 기본 지식을 갖춘 분
+모던 웹 프론트앤드 앱 개발 환경에 대한 이해가 있는 분
+MVC, MVVM, MV* 디자인 패턴에 대한 이해가 있는 분
+SPA(Single Page Application) 아키텍처 경험이 있는 분
+RESTful API 규약에 대한 기본 지식을 갖춘 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeScript 기본 지식을 갖춘 분
+코드 개선 및 코드 리뷰에 적극 참여하는 분
+NodeJS, NPM에 대한 기본 지식 보유 및 사용 경험이 있는 분
+웹사이트 보안에 대한 기본 지식을 갖춘 분
+Client side rendering 과 Server side rendering의 이해가 있는 분
+Javascript 관련 오픈소스 기여 경험이 있는 분
+개발자 커뮤니티 참여 경험 및 컨퍼런스 발표 경험이 있는 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아한 형제들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달의 민족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">모바일, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헥토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1544,12 @@
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1635,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7CC897-3401-47DC-8CB3-D2942A2B07D3}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1965,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0DA295-F74D-4701-878F-42403FF3470F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -2252,21 +2538,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552F6B94-4550-457B-8BB9-E20B0273C2B3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2313,10 +2599,240 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="78" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="91" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="65" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="130" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="91" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2324,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48DD239-F59A-41F3-883C-08440051BA2A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/study_job/기업 조사.xlsx
+++ b/study_job/기업 조사.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na0i\TIL\study_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C6B33-C331-4269-946F-E7E760BCF140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB37076-9A4C-4D8D-A6F0-DD555308289E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1840" windowWidth="17280" windowHeight="8960" activeTab="2" xr2:uid="{FCDEED95-45D3-4A47-9838-707BE30270B9}"/>
+    <workbookView xWindow="560" yWindow="1840" windowWidth="17280" windowHeight="8960" activeTab="4" xr2:uid="{FCDEED95-45D3-4A47-9838-707BE30270B9}"/>
   </bookViews>
   <sheets>
     <sheet name="대기업" sheetId="1" r:id="rId1"/>
     <sheet name="중견기업" sheetId="3" r:id="rId2"/>
     <sheet name="IT기업" sheetId="4" r:id="rId3"/>
     <sheet name="외국계" sheetId="5" r:id="rId4"/>
+    <sheet name="대기업2" sheetId="6" r:id="rId5"/>
+    <sheet name="중견기업2" sheetId="7" r:id="rId6"/>
+    <sheet name="IT기업2" sheetId="8" r:id="rId7"/>
+    <sheet name="외국계2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="314">
   <si>
     <t>기업명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,12 +1487,374 @@
     <t>헥토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://recruit.skhynix.com/servlet/reap_rcrtSearchForm.view</t>
+  </si>
+  <si>
+    <t>2021.06.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://naverfincorp-career.com/nfin/job/list/developer</t>
+  </si>
+  <si>
+    <t>2021.06.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.catch.co.kr/NCS/RecruitInfoDetails/181400</t>
+  </si>
+  <si>
+    <t>2021.06.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.linecorp.com/ko/jobs/646</t>
+  </si>
+  <si>
+    <t>2021.06.17 ~ 채용시까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://recruit.worksmobile.com/worksmobile/recruitIng</t>
+  </si>
+  <si>
+    <t>2021.05.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.kakao.com/jobs/P-11983</t>
+  </si>
+  <si>
+    <t>2021.05.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.04.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/172701</t>
+  </si>
+  <si>
+    <t>https://kbsec.incruit.com/hire/viewhire.asp?projectid=102</t>
+  </si>
+  <si>
+    <t>2021.05.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성물산(리조트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.03.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/34160588</t>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/168759</t>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/view?rec_idx=39764691</t>
+  </si>
+  <si>
+    <t>CJ ENM 커머스부문</t>
+  </si>
+  <si>
+    <t>CJ ENM 커머스부문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/169223</t>
+  </si>
+  <si>
+    <t>2021.03.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.catch.co.kr/NCS/RecruitInfoDetails/168664</t>
+  </si>
+  <si>
+    <t>2021.03.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/deliveryherokoreatech?gh_src=af60f52a2</t>
+  </si>
+  <si>
+    <t>2021.06.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.incruit.com/entry/jobpost.asp?job=2106160002614</t>
+  </si>
+  <si>
+    <t>2021.06.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/34712452</t>
+  </si>
+  <si>
+    <t>2021.05.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/174274</t>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/167107</t>
+  </si>
+  <si>
+    <t>Front-End 개발, Java 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.05.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06.30 수시채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/34483845?Oem_Code=C1&amp;PageGbn=ST</t>
+  </si>
+  <si>
+    <t>2021.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 운영/개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.superookie.com/jobs/5e1e76bf8b129f585b49ac88</t>
+  </si>
+  <si>
+    <t>2020.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.catch.co.kr/NCS/RecruitInfoDetails/179372</t>
+  </si>
+  <si>
+    <t>2021.05.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/view?rec_idx=37749559</t>
+  </si>
+  <si>
+    <t>2020.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/151914</t>
+  </si>
+  <si>
+    <t>상시채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/33795546</t>
+  </si>
+  <si>
+    <t>2021.02.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.catch.co.kr/NCS/RecruitInfoDetails/162314</t>
+  </si>
+  <si>
+    <t>https://jobs.smartrecruiters.com/banksalad/743999749765655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nice.recruiter.co.kr/app/jobnotice/view?systemKindCode=MRS2&amp;jobnoticeSn=53421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMP개발자 (데이터 관리 플랫폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linkareer.com/activity/61474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.08.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://toss.im/career/job-detail?job_id=4542925003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스뱅크 - Frontend Developer (Internal Product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스코어 - Frontend Developer(Homepage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://toss.im/career/job-detail?job_id=4197898003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://toss.im/career/job-detail?job_id=4076141003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.catch.co.kr/NCS/RecruitInfoDetails/180574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용시 마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.jobkorea.co.kr/Recruit/GI_Read/35015938?GI_No=38350211&amp;ChangedUrl=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.saramin.co.kr/job-search/view?rec_idx=40394346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동화 프로그램 및 RPA 프로그램 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/34513404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.superookie.com/jobs/5cb3f13f8b129f7a5f796bb7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.04.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linkareer.com/activity/57249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/view?rec_idx=39491671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.02.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/32485440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel 개발팀 IT개발자 신입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/view?rec_idx=38150538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.05.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/35099437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/34947470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://recruit.dreamuscompany.com/pages/careers_view.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용시마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/34702587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.08.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/33874277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가존/펜타클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/32133341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.catch.co.kr/NCS/RecruitInfoDetails/168664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,6 +1917,21 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="KoPub돋움체 Light"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1569,12 +1950,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,9 +1989,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1921,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7CC897-3401-47DC-8CB3-D2942A2B07D3}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2251,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0DA295-F74D-4701-878F-42403FF3470F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2540,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552F6B94-4550-457B-8BB9-E20B0273C2B3}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -2687,7 +3084,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="52" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -2840,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48DD239-F59A-41F3-883C-08440051BA2A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -3015,4 +3412,925 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B24696E-D0AD-46DC-8D48-58E75DD9E3D6}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{CEBFC3CF-1BE6-4359-B9AA-0846B10464C0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED2FF6F-2609-4F06-8BB1-D61726300BE9}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4528997-31E3-4B3B-88D5-F5628FF79C18}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1FBAE511-A24A-44BA-82AC-DD6E853C29CF}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{6A754A0C-ABF3-4611-A26A-3A1F1867F874}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E89F9D31-B5F6-4F54-AE84-0E54FCEDEDC6}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{E52991CA-8063-4D77-B157-36254170C899}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{C1748C61-7394-4B80-84B1-D067DAC9DAEC}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{125872EB-C9E4-49E3-A16A-94C9A3D996A9}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{A889EF6F-3110-4F3A-BF7D-919D592BC13D}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{83488967-8AC1-4D23-9030-753A800704A8}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{3950852C-748A-4953-BDD4-E85698F6666F}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{7A122E72-A925-4EDE-B8D9-14D02D7F06E6}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{2E15DCA4-E3C4-4A14-9B64-4964E4C4DD42}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{39A73F29-7F52-42BE-AAB3-825A639E9FFD}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{40CF18F8-37D9-43F0-A83D-217EB9D9ABF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220BF3D2-235A-4FCA-89D3-A5310EC999E0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{59F97C8B-40E6-44A4-BE29-36630C889AE5}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{943AB385-4FEF-4661-A22C-99CFA5ADE29F}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{73AE8142-9D41-416E-BD54-F8733C4AB5FF}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{58C75F0A-E31E-48E6-85A2-73096CB7362C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{CC91B4CF-C4FA-4E48-87E4-4291072C51E9}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{F7073687-DA90-4544-9175-9ACE208626A3}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{E5845BF5-811C-4EE6-9B54-77C68E3237FB}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{765D3F0C-185B-4AED-BF9F-80A376038A8A}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{027D71A9-1F5C-4DA1-9542-C11D5B387F1B}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{859E196D-BC1F-4426-8E7F-0092A6CB1D1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>